--- a/data/trans_camb/P14B35-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P14B35-Estudios-trans_camb.xlsx
@@ -590,7 +590,7 @@
         <v>0.189902335631968</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>0.6726162718587636</v>
+        <v>0.6726162718587638</v>
       </c>
     </row>
     <row r="5">
@@ -601,13 +601,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.07315774834462357</v>
+        <v>0.07299140212885966</v>
       </c>
       <c r="D5" s="5" t="n">
         <v>0</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.271492398697539</v>
+        <v>0.2891136074521671</v>
       </c>
     </row>
     <row r="6">
@@ -618,13 +618,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.6069103307892402</v>
+        <v>0.61593900115796</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.578392559769397</v>
+        <v>0.6617945232945879</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>1.360438660503121</v>
+        <v>1.349070204084716</v>
       </c>
     </row>
     <row r="7">
@@ -690,7 +690,7 @@
         <v>0.6314563924895031</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>3.387670312648109</v>
+        <v>3.387670312648108</v>
       </c>
     </row>
     <row r="11">
@@ -701,13 +701,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>1.381461549549023</v>
+        <v>1.422262341210382</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.3600146586640972</v>
+        <v>0.3649052923942522</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>2.596531010598729</v>
+        <v>2.647980176399281</v>
       </c>
     </row>
     <row r="12">
@@ -718,13 +718,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>2.812044776711761</v>
+        <v>2.764554473880423</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>1.093863536965433</v>
+        <v>1.040802474909727</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>4.286831642985838</v>
+        <v>4.410395696596128</v>
       </c>
     </row>
     <row r="13">
@@ -790,7 +790,7 @@
         <v>0.5376283382577424</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>5.656921690821517</v>
+        <v>5.656921690821518</v>
       </c>
     </row>
     <row r="17">
@@ -801,13 +801,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.4302721462199496</v>
+        <v>0.5658382329914583</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.1655680253440264</v>
+        <v>0.1663885797122199</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>4.178090454081762</v>
+        <v>4.093334526148941</v>
       </c>
     </row>
     <row r="18">
@@ -818,13 +818,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>2.843402830803505</v>
+        <v>3.006448707467498</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>1.361819662586833</v>
+        <v>1.434185196306401</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>7.630844828588171</v>
+        <v>7.402725238282312</v>
       </c>
     </row>
     <row r="19">
@@ -901,13 +901,13 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.9002388381627461</v>
+        <v>0.9144770717358639</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.2948221146272603</v>
+        <v>0.3031639977036675</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>2.625992677591611</v>
+        <v>2.678203987935756</v>
       </c>
     </row>
     <row r="24">
@@ -918,13 +918,13 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>1.649066992400211</v>
+        <v>1.653106940437495</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.7450328942604281</v>
+        <v>0.7643202126686722</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>3.89839439021415</v>
+        <v>3.914930572962565</v>
       </c>
     </row>
     <row r="25">
